--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652873.413510292</v>
+        <v>686132.3469591932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12482428.7691843</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5564538.631857708</v>
+        <v>7045598.283948292</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9841868.316722857</v>
+        <v>9115527.219245391</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.6926085588283</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.90855181367087</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>32.35016756540409</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>211.2228407230371</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>204.9399009596445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>162.2966852056221</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>75.86763529130077</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>19.95525157538581</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>2.817443115505684</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>217.2208539543882</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>105.0496797170784</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.38003424864942</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>211.5330992987347</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>271.8706576045856</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>148.4399041872977</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>102.0660356638783</v>
       </c>
       <c r="G14" t="n">
-        <v>312.4809534969888</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>77.31354443380459</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>43.95604371558973</v>
+        <v>43.95604371558928</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.730549048947387</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>56.00855464855959</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>100.9770255805144</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>64.37012338319005</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5103646250813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>51.47785630779846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -2377,7 +2377,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>294.4710505471704</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>36.41670903610012</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491554</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>318.4685234071041</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>95.93651183305538</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>52.7054838969011</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744755</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>201.6086852141633</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>201.6086852141634</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744755</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>152.6250124446331</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>153.4696656457188</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>282.7823572636602</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>31.98685792364253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.2486892180379</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>289.8681104214118</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.9597607944481</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.68984412497</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>283.8758740715558</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>113.9096336732662</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>137.9038626268942</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.601081015448052</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>220.6266854036291</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>76.93972860841062</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>173.1942117550898</v>
       </c>
     </row>
     <row r="44">
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>126.53888249517</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.07437110675851</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>58.40943379163138</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1502.660066001256</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="C2" t="n">
-        <v>1502.660066001256</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="D2" t="n">
-        <v>1502.660066001256</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="E2" t="n">
-        <v>1116.871813403011</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001256</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="Y2" t="n">
-        <v>1502.660066001256</v>
+        <v>560.6825636487946</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034352</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844851</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159568</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751767</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>533.4995072678427</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>344.079722251358</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.4550643866927</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>359.4550643866927</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>303.9918807365201</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>448.2056470819952</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>615.9383389575112</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>426.5185539410265</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>426.5185539410265</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>426.5185539410265</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X4" t="n">
-        <v>580.2476435302228</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.4550643866927</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1216.983460896267</v>
+        <v>745.8753877952736</v>
       </c>
       <c r="C5" t="n">
-        <v>848.0209439558549</v>
+        <v>745.8753877952736</v>
       </c>
       <c r="D5" t="n">
-        <v>848.0209439558549</v>
+        <v>745.8753877952736</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2326913576107</v>
+        <v>745.8753877952736</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800312</v>
+        <v>503.6451371472892</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872918</v>
+        <v>262.3106962605492</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>449.0101090859564</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>643.3443219779383</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>813.5133472948974</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>745.8753877952736</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190806</v>
+        <v>745.8753877952736</v>
       </c>
       <c r="X5" t="n">
-        <v>1810.593301929726</v>
+        <v>745.8753877952736</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.583300960388</v>
+        <v>745.8753877952736</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>477.6136207463404</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>303.1605914652134</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>303.1605914652134</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>303.1605914652134</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>156.6260334920984</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145188</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380218</v>
+        <v>86.7924555146772</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694936</v>
+        <v>290.1388331607135</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>469.636169515318</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>668.2929111679823</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>827.8052238367427</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>936.4948513640413</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>809.7650034286529</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>645.8289577664084</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>645.8289577664084</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>645.8289577664084</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>645.8289577664084</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>645.8289577664084</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>645.8289577664084</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>446.9335839499637</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C7" t="n">
-        <v>277.9974010220568</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D7" t="n">
-        <v>127.8807616097211</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>60.34504070228391</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>245.1780356031021</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>450.4476363223399</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>656.2710011584441</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>830.3658965470428</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>955.8134731456583</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>751.7915078184235</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>751.7915078184235</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>509.5612571704391</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028472</v>
+        <v>489.4044373973221</v>
       </c>
       <c r="W7" t="n">
-        <v>895.7157139915112</v>
+        <v>247.1741867493377</v>
       </c>
       <c r="X7" t="n">
-        <v>667.7261630934938</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="Y7" t="n">
-        <v>446.9335839499637</v>
+        <v>19.18463585132036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1888.09808975843</v>
+        <v>1259.585999602851</v>
       </c>
       <c r="C8" t="n">
-        <v>1519.135572818019</v>
+        <v>1259.585999602851</v>
       </c>
       <c r="D8" t="n">
-        <v>1160.869874211268</v>
+        <v>1259.585999602851</v>
       </c>
       <c r="E8" t="n">
-        <v>775.0816216130238</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F8" t="n">
-        <v>364.0957168234162</v>
+        <v>845.7541926763688</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>2995.900149141934</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>2664.837261798364</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W8" t="n">
-        <v>2664.837261798364</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="X8" t="n">
-        <v>2664.837261798364</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="Y8" t="n">
-        <v>2274.697929822552</v>
+        <v>1646.185839666972</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>900.5329044281302</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>726.0798751470032</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>577.145465485752</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>417.9080104802965</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>271.3734525071815</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>440.9010965631281</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>698.4522321231157</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1018.359127591625</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1361.141651586256</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1652.500897840822</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1867.009313401723</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1973.749505378629</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>1973.749505378629</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1738.597397146887</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1484.360040418685</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1276.508540213152</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1068.748241448198</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304.8914167017408</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>58.69630920174231</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1287.175893077873</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1063.572035770497</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>774.4457147445203</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>560.7759174730711</v>
       </c>
       <c r="W10" t="n">
-        <v>935.322011573528</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X10" t="n">
-        <v>707.3324606755107</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>486.5398815319805</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1767.878520285689</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C11" t="n">
-        <v>1767.878520285689</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792695</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.483610522581</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X11" t="n">
-        <v>2158.017852261501</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y11" t="n">
-        <v>1767.878520285689</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2245.732315283597</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C14" t="n">
-        <v>1876.769798343185</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D14" t="n">
-        <v>1518.504099736434</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E14" t="n">
-        <v>1132.71584713819</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="F14" t="n">
-        <v>721.7299423485827</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5296,10 +5296,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2635.871647259408</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2245.732315283597</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>463.6594280995014</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="C16" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X16" t="n">
-        <v>866.1004720732712</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y16" t="n">
-        <v>645.3078929297411</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,16 +5545,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
         <v>2027.575342023478</v>
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.0764108006842</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C19" t="n">
-        <v>392.1402278727774</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D19" t="n">
-        <v>242.0235884604416</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>123.0864140569911</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>123.0864140569911</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5703,22 +5703,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.608663915319</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.924175709432</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.507005672471</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>963.5174547744541</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.724875630924</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1405.52688261361</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C20" t="n">
-        <v>1036.564365673199</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1036.564365673199</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.564365673199</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>625.5784608835913</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>210.5060107285878</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5767,37 +5767,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y20" t="n">
-        <v>1792.126722677732</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1238.038871968309</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C23" t="n">
-        <v>869.0763550278969</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D23" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E23" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810557</v>
@@ -5998,43 +5998,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269322</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008242</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.63871203243</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.6347488791189</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V25" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W25" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X25" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>773.9857462093207</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>388.1974936110765</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6244,34 +6244,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2769.192029759092</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X26" t="n">
-        <v>2395.726271498012</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y26" t="n">
-        <v>2005.586939522201</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>530.9956795433836</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>530.9956795433836</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>530.9956795433836</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>530.9956795433836</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U28" t="n">
-        <v>1241.044369546818</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V28" t="n">
-        <v>986.3598813409312</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W28" t="n">
-        <v>696.9427113039706</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X28" t="n">
-        <v>468.9531604059532</v>
+        <v>933.4367235171535</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>712.6441443736234</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2209.232076102164</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1840.269559161752</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1482.003860555002</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1096.215607956757</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>685.2297031671499</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>270.1572530121463</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218339</v>
@@ -6463,10 +6463,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6481,7 +6481,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052367</v>
@@ -6493,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339055</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218339</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218339</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218339</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218339</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218339</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1530.147236421175</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>1241.044369546818</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V31" t="n">
-        <v>986.3598813409312</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W31" t="n">
-        <v>696.9427113039706</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X31" t="n">
-        <v>468.9531604059532</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1689.318139675982</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C32" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3170.585957320566</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3170.585957320566</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2839.523069976995</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2839.523069976995</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2466.057311715915</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2075.917979740103</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>700.1577228956174</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C34" t="n">
-        <v>531.2215399677106</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D34" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1102.598766869387</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1102.598766869387</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>881.8061877258572</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1661.795585684488</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C35" t="n">
-        <v>1292.833068744076</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>934.5673701373257</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539435</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2741.012457539435</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.546699278355</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y35" t="n">
-        <v>2048.39542574861</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228006</v>
@@ -7022,7 +7022,7 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7031,10 +7031,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.8553933260925</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C37" t="n">
-        <v>231.8553933260925</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D37" t="n">
-        <v>231.8553933260925</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E37" t="n">
-        <v>231.8553933260925</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F37" t="n">
-        <v>231.8553933260925</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484844</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610487</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046005</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676399</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696226</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.8553933260925</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3076.018322200008</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792695</v>
+        <v>2744.955434856437</v>
       </c>
       <c r="W38" t="n">
-        <v>2884.252265792695</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="X38" t="n">
-        <v>2510.786507531615</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y38" t="n">
-        <v>2120.647175555803</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1919.61668847693</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1919.61668847693</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.850073046456</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1408.747206172099</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>1154.062717966212</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W40" t="n">
-        <v>864.6455479292516</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X40" t="n">
-        <v>636.6559970312343</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8634178877041</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D41" t="n">
         <v>1278.358723975039</v>
@@ -7402,19 +7402,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C43" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610488</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046014</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676408</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X43" t="n">
-        <v>602.9206257833877</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y43" t="n">
-        <v>382.1280466398576</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7663,28 +7663,28 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W44" t="n">
         <v>3197.788768583745</v>
@@ -7721,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>231.8553933260934</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C46" t="n">
-        <v>231.8553933260934</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D46" t="n">
-        <v>81.73875391375765</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>81.73875391375765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>81.73875391375765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1868.295120016137</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1646.528504585664</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610488</v>
+        <v>1357.425637711307</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046014</v>
+        <v>1102.74114950542</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676408</v>
+        <v>813.3239794684597</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696235</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260934</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883069305</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,10 +8145,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>154.1946371899308</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566407</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>66.78462588923495</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>46.2513171076362</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>70.12741386431458</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.1834371828832</v>
+        <v>241.703508565617</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>63.64367339871052</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>94.5392757904732</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22710,25 +22710,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>93.70692120454149</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>19.25466862917642</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>219.7874757584239</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>98.99741117027119</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271734</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>173.1089558044322</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>75.23293593371108</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>116.5294177470978</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.2980376964091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,10 +22868,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>32.72271767589123</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22944,28 +22944,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>70.5663273552684</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>46.45270651659246</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.1823917484422</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>46.71505019508646</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>379.1129269567561</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>33.77431800451379</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>30.45755412995682</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>79.86678684997841</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23193,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>40.60454402509333</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>110.8631840588949</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>206.2431374333852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696602</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>304.8100100778331</v>
       </c>
       <c r="G14" t="n">
-        <v>98.44077215646462</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.556976973656106</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>69.12041821276458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>325.7750569628793</v>
+        <v>325.7750569628798</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>138.7034135976218</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.0172536104686</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>193.6307388068061</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>263.3821350869449</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569881</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>303.2051853128845</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>91.76688810888317</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>112.1987639821122</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>88.40752233460734</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>253.3044568843576</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>92.71556412603015</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696639</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>92.99907917315718</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24733,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>2.30928492545678</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696639</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>73.0846429444041</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>50.44830449390139</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>103.4555813923934</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>254.5361404129485</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.335964134056894</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>75.40478134959579</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>70.27817786160546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>2.33596413405823</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2.335964134057065</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>268.8242079902144</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>113.0913093320077</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>81.33107165459927</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>149.10441527484</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>148.7699267806265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>45.39044159700498</v>
       </c>
     </row>
     <row r="44">
@@ -25921,13 +25921,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>124.4562894637311</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>222.702086222243</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>150.9514371522697</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>131.3595915398105</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>787807.6738230401</v>
+        <v>464372.2775194289</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>787807.6738230403</v>
+        <v>507824.3042456984</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>864081.6827625358</v>
+        <v>719481.5807333307</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>864081.6827625358</v>
+        <v>864081.6827625359</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>864081.6827625358</v>
+        <v>864081.6827625359</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.6827625358</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>864081.6827625358</v>
+        <v>864081.6827625356</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>864081.6827625356</v>
+        <v>864081.6827625359</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>864081.682762536</v>
+        <v>864081.6827625356</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.682762536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943085</v>
+        <v>180441.6164408227</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>196739.5707604094</v>
       </c>
       <c r="D2" t="n">
+        <v>279547.2423401895</v>
+      </c>
+      <c r="E2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="H2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709207</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="O2" t="n">
         <v>340997.0989709206</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709205</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>57873.59701082214</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403375</v>
+        <v>316774.1501411056</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13455.80667946131</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>76511.18310969991</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608619</v>
       </c>
       <c r="N3" t="n">
-        <v>4.708776941697579e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23400.41285106791</v>
+        <v>13430.84951441317</v>
       </c>
       <c r="C4" t="n">
-        <v>23400.41285106788</v>
+        <v>16183.32717025134</v>
       </c>
       <c r="D4" t="n">
-        <v>12210.17896214071</v>
+        <v>21058.7668908512</v>
       </c>
       <c r="E4" t="n">
         <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214069</v>
       </c>
       <c r="G4" t="n">
         <v>12210.17896214071</v>
@@ -26453,7 +26453,7 @@
         <v>12210.17896214071</v>
       </c>
       <c r="N4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214072</v>
       </c>
       <c r="O4" t="n">
         <v>12210.17896214071</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-930345.8010944154</v>
+        <v>-482482.3323485059</v>
       </c>
       <c r="C6" t="n">
-        <v>184405.982481504</v>
+        <v>60468.03777410396</v>
       </c>
       <c r="D6" t="n">
-        <v>24749.64970898796</v>
+        <v>-144139.6247605993</v>
       </c>
       <c r="E6" t="n">
-        <v>251004.3901493256</v>
+        <v>-21897.78524932965</v>
       </c>
       <c r="F6" t="n">
-        <v>251004.3901493255</v>
+        <v>254132.9605175804</v>
       </c>
       <c r="G6" t="n">
-        <v>251004.3901493257</v>
+        <v>254132.9605175807</v>
       </c>
       <c r="H6" t="n">
-        <v>251004.3901493256</v>
+        <v>254132.9605175804</v>
       </c>
       <c r="I6" t="n">
-        <v>251004.3901493257</v>
+        <v>254132.9605175808</v>
       </c>
       <c r="J6" t="n">
-        <v>83399.21233934314</v>
+        <v>205068.0157890359</v>
       </c>
       <c r="K6" t="n">
-        <v>251004.3901493255</v>
+        <v>240677.1538381191</v>
       </c>
       <c r="L6" t="n">
-        <v>202710.4201411348</v>
+        <v>177621.7774078805</v>
       </c>
       <c r="M6" t="n">
-        <v>251004.3901493257</v>
+        <v>182041.6079014942</v>
       </c>
       <c r="N6" t="n">
-        <v>251004.3901493251</v>
+        <v>254132.9605175802</v>
       </c>
       <c r="O6" t="n">
-        <v>251004.3901493258</v>
+        <v>254132.9605175805</v>
       </c>
       <c r="P6" t="n">
-        <v>251004.3901493255</v>
+        <v>254132.9605175804</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="D4" t="n">
+        <v>542.1149567261633</v>
+      </c>
+      <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="E4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>45.00615942516004</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>260.2345641996196</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.28236097518473</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>302.3070085846588</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>52.28236097518462</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>302.3070085846589</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>52.28236097518473</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>302.3070085846588</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922432</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>170.3060203105423</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>21.44873736705364</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>83.39712583292123</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>140.7360160012655</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>196.2971847393757</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>171.8879043605648</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065816</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560636</v>
+        <v>68.29072693268367</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>205.4003814606427</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>200.6633754067317</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>41.57616651612479</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>228.8054610813133</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
